--- a/src/data/plantillaTerminos.xlsx
+++ b/src/data/plantillaTerminos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\traducto-ngabere\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7935" windowHeight="4575" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7935" windowHeight="4575" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="letraA" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="letraCH" sheetId="3" r:id="rId3"/>
     <sheet name="letraD4" sheetId="4" r:id="rId4"/>
     <sheet name="letraGW" sheetId="5" r:id="rId5"/>
+    <sheet name="letraJ" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="1248">
   <si>
     <t>id</t>
   </si>
@@ -3539,59 +3540,336 @@
     <t xml:space="preserve">Rana </t>
   </si>
   <si>
-    <t xml:space="preserve">Gwa ye mrende </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ani gwä sribire </t>
-  </si>
-  <si>
-    <t>Jagwe gwä ngwäne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blite gwaire ngäbere </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juben gwairebe dötrö </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gwara  möin deme </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jagwe gwi nete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gwreta ye turi mägwe  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ese pescado es del mar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vamos ya a trabajar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venga de inmediato </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hablen juntos en ngäbere </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bañasen rápidos todos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escarbe despacio la lombriz </t>
-  </si>
-  <si>
     <t xml:space="preserve">Venga aquí adentro de la casa. </t>
   </si>
   <si>
     <t xml:space="preserve">Usted vio a una rana.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ese pescado es del mar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos ya a trabajar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venga de inmediato. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hablen juntos en ngäbere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bañasen rápidos todos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escarbe despacio la lombriz. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwreta ye turi mägwe.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jagwe gwi nete. </t>
+  </si>
+  <si>
+    <t>Gwara  möin deme.</t>
+  </si>
+  <si>
+    <t>texto_gnabere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwa ye mrende. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani gwä sribire. </t>
+  </si>
+  <si>
+    <t>Jagwe gwä ngwäne.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blite gwaire ngäbere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juben gwairebe dötrö. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>jä</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadengä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jadabare </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">jagani </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">jadagai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadugue </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>jadugabare</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">jadugai </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">jadugani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jagain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jametai </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">jametabare </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Jägue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jagwe </t>
+  </si>
+  <si>
+    <t>Jagwre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbo reflexivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piedra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugaron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugó </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugará </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dormir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durmieron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dormirán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dormido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelearan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelearon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalar </t>
+  </si>
+  <si>
+    <t>Venga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani jagain gwa kite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos en la tarde a jugar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellos jugaron conmigo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El jugara con nosotros. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellos durmieron cerca de él. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vieron a Nei dormido.  </t>
+  </si>
+  <si>
+    <t>Hagamos competencia para pescar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voy a ir a jalar leña. </t>
+  </si>
+  <si>
+    <t>Él ya se fue a dormir.</t>
+  </si>
+  <si>
+    <t>Yo me voy a dormir temprano.</t>
+  </si>
+  <si>
+    <t>Él estaba ayer peleando.</t>
+  </si>
+  <si>
+    <t>Él va a Pelearan conmigo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esos dos caballos pelearon. </t>
+  </si>
+  <si>
+    <t>Venga siéntese aquí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jä ye bä ngwen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani Jadengä dere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwetre jadagabare tibe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni se jadagani kuin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni se jadagai nibe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kugwe niguira jadugue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwetre jadugabare ken. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tigwe jadugai derebe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nei tuani jadugani. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe nämä jamete jädrin. </t>
+  </si>
+  <si>
+    <t>Ni segwe jametai tibe.</t>
+  </si>
+  <si>
+    <t>Mädä krobu ye jametabare.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti näin ngi jägue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jagwe tägue nete. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esa piedra es de color blanco. </t>
+  </si>
+  <si>
+    <t>El jugo bien.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3725,6 +4003,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4068,9 +4366,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14485,19 +14787,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -14519,7 +14821,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1179</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -14551,7 +14853,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
         <v>1153</v>
@@ -14560,10 +14862,10 @@
         <v>1161</v>
       </c>
       <c r="D2" t="s">
-        <v>1168</v>
+        <v>1180</v>
       </c>
       <c r="E2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -14591,6 +14893,9 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>283</v>
+      </c>
       <c r="B3" t="s">
         <v>1154</v>
       </c>
@@ -14598,13 +14903,16 @@
         <v>502</v>
       </c>
       <c r="D3" t="s">
-        <v>1169</v>
+        <v>1181</v>
       </c>
       <c r="E3" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>284</v>
+      </c>
       <c r="B4" t="s">
         <v>1155</v>
       </c>
@@ -14612,13 +14920,16 @@
         <v>1162</v>
       </c>
       <c r="D4" t="s">
-        <v>1170</v>
+        <v>1182</v>
       </c>
       <c r="E4" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>285</v>
+      </c>
       <c r="B5" t="s">
         <v>1156</v>
       </c>
@@ -14626,13 +14937,16 @@
         <v>1163</v>
       </c>
       <c r="D5" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="E5" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>286</v>
+      </c>
       <c r="B6" t="s">
         <v>1157</v>
       </c>
@@ -14640,13 +14954,16 @@
         <v>1164</v>
       </c>
       <c r="D6" t="s">
-        <v>1172</v>
+        <v>1184</v>
       </c>
       <c r="E6" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>287</v>
+      </c>
       <c r="B7" t="s">
         <v>1158</v>
       </c>
@@ -14654,13 +14971,16 @@
         <v>1165</v>
       </c>
       <c r="D7" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="E7" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>288</v>
+      </c>
       <c r="B8" t="s">
         <v>1159</v>
       </c>
@@ -14668,13 +14988,16 @@
         <v>1166</v>
       </c>
       <c r="D8" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="E8" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>289</v>
+      </c>
       <c r="B9" t="s">
         <v>1160</v>
       </c>
@@ -14682,10 +15005,396 @@
         <v>1167</v>
       </c>
       <c r="D9" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E9" t="s">
-        <v>1183</v>
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>290</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
+        <v>735</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>43867.470242997682</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>292</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>293</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>294</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>298</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>299</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>301</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>303</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>304</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>305</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>306</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1201</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/plantillaTerminos.xlsx
+++ b/src/data/plantillaTerminos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7935" windowHeight="4575" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7935" windowHeight="4575" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="letraA" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="letraD4" sheetId="4" r:id="rId4"/>
     <sheet name="letraGW" sheetId="5" r:id="rId5"/>
     <sheet name="letraJ" sheetId="6" r:id="rId6"/>
+    <sheet name="letraK" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="2185">
   <si>
     <t>id</t>
   </si>
@@ -3863,6 +3864,2834 @@
   </si>
   <si>
     <t>El jugo bien.</t>
+  </si>
+  <si>
+    <t>Jän</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jän </t>
+  </si>
+  <si>
+    <t>Jadai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">jadani </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Jäguegä </t>
+  </si>
+  <si>
+    <t>Jamägue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jäme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jädrin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Järän </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jängunu </t>
+  </si>
+  <si>
+    <t>Jali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jatödigue </t>
+  </si>
+  <si>
+    <t>Jabe</t>
+  </si>
+  <si>
+    <t>Jagaire</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Jamaga</t>
+  </si>
+  <si>
+    <t>Järä</t>
+  </si>
+  <si>
+    <t>Jäde</t>
+  </si>
+  <si>
+    <t>Jene</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cama </t>
+  </si>
+  <si>
+    <t>Vendrá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vino, llego, paso  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinieron, llegaron, pasaron  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arranque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amistoso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranquilo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zancudo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuar, seguir   </t>
+  </si>
+  <si>
+    <t>Nombre de pescado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiar </t>
+  </si>
+  <si>
+    <t>Juntos, acompañados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vergonzoso </t>
+  </si>
+  <si>
+    <t>Orilla del rio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaca </t>
+  </si>
+  <si>
+    <t>Barranco</t>
+  </si>
+  <si>
+    <t>Dentro de la piedra</t>
+  </si>
+  <si>
+    <t>Diferente</t>
+  </si>
+  <si>
+    <t>Sí, es mi casa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su cama es bonita. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe jadai ti toen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ella me vendría a verme. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El tigre pasó cerca de él. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasaron varios chanco monte. </t>
+  </si>
+  <si>
+    <t>Arranque esa yuca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él es amistoso con todas las personas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esa vaca es muy tranquila. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer se comieron esa gallina. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellos continuaron caminando. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ese pescado se llama jali. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos a estudiar todos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ki meri ngwena jabe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo soy muy  vergonzosos. </t>
+  </si>
+  <si>
+    <t>Ponga al bebe a la orilla del rio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alce esa jamaca. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El hablo diferente hoy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jän, ju ye tigwe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jän mägwe ye nuäre. </t>
+  </si>
+  <si>
+    <t>Kwra jadani ken  ta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiro jadabare kabre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ö ye jäguegä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe jamägue ni jokrä ben. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nibi se jäme krubäte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jädrin kwi  ye kwetaba.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Järän ye kämigue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwetre nigani jängunu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwa ye kä jali. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani jatödigue jokrä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti jagaire krubäte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi ye migue jade. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaga ye kaingä. </t>
+  </si>
+  <si>
+    <t>Järä ye toen diore mende.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kebe ye tä jäde. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe blitani jene matare. </t>
+  </si>
+  <si>
+    <t>El camarón está en la piedra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se observa el barranco desde muy lejos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajo a la mujer de acompañante. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mate ese zancudo. </t>
+  </si>
+  <si>
+    <t>Jenena</t>
+  </si>
+  <si>
+    <t>Particular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meri ye jenena. </t>
+  </si>
+  <si>
+    <t>Jetebe</t>
+  </si>
+  <si>
+    <t>Mañana</t>
+  </si>
+  <si>
+    <t>Mañana mataran al pato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeñe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propio(a) </t>
+  </si>
+  <si>
+    <t>Jedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi nieta se llama jedi. </t>
+  </si>
+  <si>
+    <t>Ji</t>
+  </si>
+  <si>
+    <t>Camino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos a limpiar el camino. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jibiegä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aflojar, soltar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suelte  la mano de esa mujer. </t>
+  </si>
+  <si>
+    <t>Jien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freir, tostar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dere ani gwa jien. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la tarde vamos a freír pescado. </t>
+  </si>
+  <si>
+    <t>Jie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rastro, huella </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jisai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerebro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se debe comer el cerebro de la gallina. </t>
+  </si>
+  <si>
+    <t>Jibe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosquilloso </t>
+  </si>
+  <si>
+    <t>Jide</t>
+  </si>
+  <si>
+    <t>En el camino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espere a esa persona en el camino. </t>
+  </si>
+  <si>
+    <t>Jidiguin</t>
+  </si>
+  <si>
+    <t>Nombre de Chicharra</t>
+  </si>
+  <si>
+    <t>Jole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El pájaro se comió un Jole. </t>
+  </si>
+  <si>
+    <t>Jogue</t>
+  </si>
+  <si>
+    <t>Nombre de Cacao</t>
+  </si>
+  <si>
+    <t>Jodron</t>
+  </si>
+  <si>
+    <t>Cosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jodron ye kä ño? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como se llama esa cosa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jötrö </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amarre rápido esa vaca. </t>
+  </si>
+  <si>
+    <t>Jobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lluvioso (exceso) </t>
+  </si>
+  <si>
+    <t>Jola</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ju </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi casa es de color verde. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobija </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jue </t>
+  </si>
+  <si>
+    <t>Dormitorio(casa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lave el dormitorio del perro. </t>
+  </si>
+  <si>
+    <t>Juden</t>
+  </si>
+  <si>
+    <t>Zopilote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El zopilote es de color negro. </t>
+  </si>
+  <si>
+    <t>Jurin</t>
+  </si>
+  <si>
+    <t>Mono Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El mono Congo aúlla muy fuerte </t>
+  </si>
+  <si>
+    <t>Jurite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedir( buscar) trueque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El llegará a pedir que le regale pejibayes. </t>
+  </si>
+  <si>
+    <t>Juröre</t>
+  </si>
+  <si>
+    <t>Picazón</t>
+  </si>
+  <si>
+    <t>Juben</t>
+  </si>
+  <si>
+    <t>Bañar</t>
+  </si>
+  <si>
+    <t>Jura</t>
+  </si>
+  <si>
+    <t>Rápido</t>
+  </si>
+  <si>
+    <t>Jügue</t>
+  </si>
+  <si>
+    <t>Pitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jüguete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Báñelo </t>
+  </si>
+  <si>
+    <t>Jugwe</t>
+  </si>
+  <si>
+    <t>Puerta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abra esa puerta. </t>
+  </si>
+  <si>
+    <t>Judä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huevo </t>
+  </si>
+  <si>
+    <t>El huevo es de color blanco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judigue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remendar, coser </t>
+  </si>
+  <si>
+    <t>Junu</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El perro tiene enfermo el ano. </t>
+  </si>
+  <si>
+    <t>Jue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa, nido  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar, mandar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envíe al perro detrás de él. </t>
+  </si>
+  <si>
+    <t>Jübengä</t>
+  </si>
+  <si>
+    <t>Nadar</t>
+  </si>
+  <si>
+    <t>Jona</t>
+  </si>
+  <si>
+    <t>alumina  (pez)</t>
+  </si>
+  <si>
+    <t>Juta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Población </t>
+  </si>
+  <si>
+    <t>Jüdai</t>
+  </si>
+  <si>
+    <t>Nido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dela jüdai kwani ie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti rün juta tuani san jose. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jona ye dübrü käme. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruä ye jubengä deme. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encontré el nido de un yigüierro.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La escama de la luminilla es mala.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El señor nada espacio. </t>
+  </si>
+  <si>
+    <t>Cuide la casa del tucán.</t>
+  </si>
+  <si>
+    <t>Mi papá vio una población en san Jose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugwe ye tigue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwi judä bä ngwen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dän ye judigue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu junu nibi bren. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiala jue ye ngobare. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nugrä ye juen jie bti. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remiende m ropa.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bañe al perro. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinte la ilustración del árbol. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siempre jesi corre muy rápido. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me voy a bañar al rio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me pica la mano. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jetebe bato kämigai. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matare ju tigwe jeñe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti bün kä jedi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brän ji bäsegä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meri ye kise jibiegä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nusi jie turi tigwe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwi jidai ñaka kwetare. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meri ye jibe ulie btä. </t>
+  </si>
+  <si>
+    <t>Mägwe ni ye ngoba jide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jidiguin ye juendari. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jole kwiti nugwägwe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani jogue nögö dere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nibi ye mäguete jötrö.  </t>
+  </si>
+  <si>
+    <t>ñü rägäin  jobe dere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minchi jola ye ngä. </t>
+  </si>
+  <si>
+    <t>Ju tigwe bä kare.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ju ye ngwen tie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ella es particular. </t>
+  </si>
+  <si>
+    <t>Ahora tengo mi propia casa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo vi el rastro del armadillo. </t>
+  </si>
+  <si>
+    <t>Esa es muy cosquilloso en la piernas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espante el Jidiguin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos a sembrar en la tarde un jogue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la tarde será lluvioso. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cola del gato es largo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deme la cobija. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nugrä ye jüguete. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri uai  ye jügue.  </t>
+  </si>
+  <si>
+    <t>Jesi ye nen jura kärera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti näin juben ñöte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti kise nibi juröre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe rugai deba  jurite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurin ye ngä dite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juden ye bä drüne. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu jue ye bätete. </t>
+  </si>
+  <si>
+    <t>Kä</t>
+  </si>
+  <si>
+    <t>Hoja</t>
+  </si>
+  <si>
+    <t>La hoja de ese árbol es amarillo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este año me junto con ella. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tierra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy esta frio el tiempo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käbäre </t>
+  </si>
+  <si>
+    <t>Mezquino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bastante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käbure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadagwata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kädegue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombrar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kädriere </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agarrar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käingä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alzar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaibe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usted va ir solo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaindare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perseguir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El perro está persiguiendo a la gallina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaingäbiti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recibir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reciba esa plata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käjugue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silbe fuerte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saliva </t>
+  </si>
+  <si>
+    <t>El tiro saliva para ver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La serpiente es malo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kämigue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mataremos esa gallina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kändän </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ardilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ardilla es muy brava. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Känäira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hace días </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hace días vi un tucán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelante </t>
+  </si>
+  <si>
+    <t>Envié de primero al perro</t>
+  </si>
+  <si>
+    <t>Kaíndari</t>
+  </si>
+  <si>
+    <t>Corretear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córrete al cerdo  </t>
+  </si>
+  <si>
+    <t>Kagoto</t>
+  </si>
+  <si>
+    <t>Pipa (fumar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esa pipa es de mi abuelo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Känene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busque ese gusano. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Känengri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meigo fue delante de mí. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Känime </t>
+  </si>
+  <si>
+    <t>cerca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi casa está muy cerca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käsenda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la Montaña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi papa se fue en la montaña. </t>
+  </si>
+  <si>
+    <t>Kä kugwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quemar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él está quemando. </t>
+  </si>
+  <si>
+    <t>Känsren</t>
+  </si>
+  <si>
+    <t>Coca leca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La coca leca es muy huraña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kä nugwe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incendio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hace rato se incendió </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mañana vamos a cantar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi ropa es verde. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siempre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kärera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por siempre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El habla por siempre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kärerañera </t>
+  </si>
+  <si>
+    <t>Para siempre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kärere </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llamar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llame a esa persona. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kätogwä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El tigre está en la selva. </t>
+  </si>
+  <si>
+    <t>Käde</t>
+  </si>
+  <si>
+    <t>Picante</t>
+  </si>
+  <si>
+    <t>Kä te</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentro del terreno  </t>
+  </si>
+  <si>
+    <t>La casa tä dentro de terreno.</t>
+  </si>
+  <si>
+    <t>Kämä</t>
+  </si>
+  <si>
+    <t>Tres hojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corte tres hojas de pita. </t>
+  </si>
+  <si>
+    <t>Käinte</t>
+  </si>
+  <si>
+    <t>Sacudir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacuda el sombrero. </t>
+  </si>
+  <si>
+    <t>Kärie</t>
+  </si>
+  <si>
+    <t>Tapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busque la tapa de la olla. </t>
+  </si>
+  <si>
+    <t>Käburie</t>
+  </si>
+  <si>
+    <t>Basura</t>
+  </si>
+  <si>
+    <t>Kädri</t>
+  </si>
+  <si>
+    <t>Al  Este</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sol salió al este. </t>
+  </si>
+  <si>
+    <t>Kegue</t>
+  </si>
+  <si>
+    <t>Vaciar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacié el agua en la calabaza.  </t>
+  </si>
+  <si>
+    <t>Kebe</t>
+  </si>
+  <si>
+    <t>Camarón</t>
+  </si>
+  <si>
+    <t>Comején</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la tarde vas a quemar el comején. </t>
+  </si>
+  <si>
+    <t>Rascar</t>
+  </si>
+  <si>
+    <t>Keguete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosquillar, piñizcar </t>
+  </si>
+  <si>
+    <t>Kena</t>
+  </si>
+  <si>
+    <t>Primero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deje hablar primero al señor. </t>
+  </si>
+  <si>
+    <t>Kenguema</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Kete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semillero </t>
+  </si>
+  <si>
+    <t>Haga semillero de naranja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kedete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostener </t>
+  </si>
+  <si>
+    <t>Kede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amontonar, agrupar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amontone bástate la leña. </t>
+  </si>
+  <si>
+    <t>Kedebiti</t>
+  </si>
+  <si>
+    <t>Tapar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tape el pilón. </t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>A la par</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venga a la par mío.  </t>
+  </si>
+  <si>
+    <t>Kedeiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un grupo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recoja en un grupo las piedras. </t>
+  </si>
+  <si>
+    <t>Kega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llenar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riegue  la chicha al suelo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketabe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuantos grupos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuantos grupos de personas vieron. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketamä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres grupos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jä ye tä ketamä yete.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketegä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cercar, encerrar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketegä trägwata bätä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Péguele la hoja.  </t>
+  </si>
+  <si>
+    <t>ki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cercado, encierro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hágale un encierro al cerdo. </t>
+  </si>
+  <si>
+    <t>Kira</t>
+  </si>
+  <si>
+    <t>Antigua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antiguamente vieron a una danta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vino (verbo venir en pasado )   </t>
+  </si>
+  <si>
+    <t>Kiängätä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esa hierba es malo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kia kia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedacitos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parta en pedacitos ese árbol. </t>
+  </si>
+  <si>
+    <t>Kide</t>
+  </si>
+  <si>
+    <t>Mano</t>
+  </si>
+  <si>
+    <t>Kiben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vino con él. </t>
+  </si>
+  <si>
+    <t>Kimu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estococas(plantas) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpie la planta estococas. </t>
+  </si>
+  <si>
+    <t>Kidri</t>
+  </si>
+  <si>
+    <t>Sarna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La sarna es mala. </t>
+  </si>
+  <si>
+    <t>Kitete</t>
+  </si>
+  <si>
+    <t>Seleccionar</t>
+  </si>
+  <si>
+    <t>Seleccione ese frijol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kideiti </t>
+  </si>
+  <si>
+    <t>Una racima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bla ye  tigegä kideiti. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corte una racima de plátano. </t>
+  </si>
+  <si>
+    <t>Kirire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torcido </t>
+  </si>
+  <si>
+    <t>Kiadre</t>
+  </si>
+  <si>
+    <t>niños</t>
+  </si>
+  <si>
+    <t>Kiala</t>
+  </si>
+  <si>
+    <t>Tucán</t>
+  </si>
+  <si>
+    <t>Kiala ye bä tuäre</t>
+  </si>
+  <si>
+    <t>Kian</t>
+  </si>
+  <si>
+    <t>Leche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kian bien nu yei </t>
+  </si>
+  <si>
+    <t>Kianinte</t>
+  </si>
+  <si>
+    <t>Vaciaron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ñö  ye kianinte chitani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaciaron poquito el agua. </t>
+  </si>
+  <si>
+    <t>Kianinde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajar una hoja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiga kä ye kianinde kwe </t>
+  </si>
+  <si>
+    <t>Kiri</t>
+  </si>
+  <si>
+    <t>A su lado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngutuä kiri jue tä kwe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al lado del cerro tiene la casa. </t>
+  </si>
+  <si>
+    <t>Kite</t>
+  </si>
+  <si>
+    <t>Tirar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käbure ye ñukwä kite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No bote la basura. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mata de pita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani kiga nögö </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos a sembrar mata de pita. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimien </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe tä kimien yete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él está durmiendo ahí. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisegwä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisegwä ye migue yete  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponga el puño ahí. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitegä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani käburie kitegä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos a botar basura. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muma kite ugwente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eche los frijoles en la olla. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanzar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naran kite tie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lánceme esa naranja. </t>
+  </si>
+  <si>
+    <t>Kloso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejilla  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe kloso nga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua klä nibira ngwen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuerpo Espín </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klon ye tugwäte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El cuerpo Espín es espinoso. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klabo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clavo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klabo nigui ti ngotote </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se metió  un clavo en mis pies. </t>
+  </si>
+  <si>
+    <t>Kö</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grasa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngiri ye kö krubäte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esa carne tiene mucha grasa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kö </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe kö ngwen kögäni </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El compro un hilo de color blanco. </t>
+  </si>
+  <si>
+    <t>Köte</t>
+  </si>
+  <si>
+    <t>Gordo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi caballo es gordo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kobaire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compadrear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köbö </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sueño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köböi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Día </t>
+  </si>
+  <si>
+    <t>Köböti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köbö bäbe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuantos días </t>
+  </si>
+  <si>
+    <t>Cuantos días llegaran la gente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köbö kite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fijar la fecha  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fijemos fechas para trabajar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köbö migue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köböre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soñar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El siempre sueña. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ködä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zorro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El zorro es de color negro. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tábano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koben kabre nere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kögö </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos a comprar ropa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Así </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mä riga köre jie biti. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaya de último después de él. </t>
+  </si>
+  <si>
+    <t>Kodo</t>
+  </si>
+  <si>
+    <t>Taparrabo</t>
+  </si>
+  <si>
+    <t>Kö te</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el hilo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La vaca se murió por estar en el hilo. </t>
+  </si>
+  <si>
+    <t>Köto</t>
+  </si>
+  <si>
+    <t>Reir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él es muy  alegre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kögrä </t>
+  </si>
+  <si>
+    <t>Bejuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ese bejuco es para la medicina. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono (utilizado para definir la comunicación) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comuníquese mediante el teléfono. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kö migue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciar una confección </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kötä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hombro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponga tu hombro cerca del árbol. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kötaire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reírse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kötu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzuelo para pescar  </t>
+  </si>
+  <si>
+    <t>Gwara migue kötu bätä.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huesos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chácara </t>
+  </si>
+  <si>
+    <t>Krä chi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delgado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esa mujer es demasiado delgado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kräre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flaco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ño bätä mä kräre ye. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kräbe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad de animales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuantos cerdos están vendiendo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kraire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigilar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él está vigilando al pollo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krägä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicina </t>
+  </si>
+  <si>
+    <t>Vuelva a cocinar la medicina otra vez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krägue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El pilón es para el maíz. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krati </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un animal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kräti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seis animales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pereza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perezoso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él es muy perezoso. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Árbol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri blü </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flor de un árbol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La flor es de color rojo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krien </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mete el palo en el hueco. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri kä </t>
+  </si>
+  <si>
+    <t>Kriä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saque las hojas al patio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krigri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muy grande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri kise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corte la rama de ese árbol. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krigwata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casaca de árbol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esa cascara de árbol es para la medicina. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krö </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De pie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En viajo de pies en el bus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krörö </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De esta forma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi mama hablo de esta forma. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krotu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuerno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El cuerno del toro es pequeño. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krubäte </t>
+  </si>
+  <si>
+    <t>Demasiado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jä ye kri krubäte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esa piedra es demasiado grande. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krübäte </t>
+  </si>
+  <si>
+    <t>Demasiado(sentimiento)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El me ama demasiado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krube </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tibio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kruborie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudor </t>
+  </si>
+  <si>
+    <t>krü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mataron al venado con un arma. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krün </t>
+  </si>
+  <si>
+    <t>Balsa (árbol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extrae el hilo del árbol dela balsa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krütani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falleció </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hace muchos tiempos murió el señor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krüte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acabar, terminar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ku </t>
+  </si>
+  <si>
+    <t>perico ligero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwaga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kübara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cola del gato está mal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kübien </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Küde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usted tiene el brazo corto. </t>
+  </si>
+  <si>
+    <t>Küdrere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maltratar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque maltratas al perro. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Küguen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fuera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kün </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piojo </t>
+  </si>
+  <si>
+    <t>Kuso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puños </t>
+  </si>
+  <si>
+    <t>Kuta</t>
+  </si>
+  <si>
+    <t>Gusano ratón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El gusano ratón es de color blanco </t>
+  </si>
+  <si>
+    <t>Kutuä</t>
+  </si>
+  <si>
+    <t>Canasto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagamos canasto </t>
+  </si>
+  <si>
+    <t>Kuin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien, bueno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él es bueno para pescar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alto, arriba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El pejibaye está muy alto </t>
+  </si>
+  <si>
+    <t>kwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encontrar </t>
+  </si>
+  <si>
+    <t>Él se encontrara en la casa.</t>
+  </si>
+  <si>
+    <t>Kunti</t>
+  </si>
+  <si>
+    <t>Un pedazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corte un pedazo ese tronco para leña. </t>
+  </si>
+  <si>
+    <t>Kuaite</t>
+  </si>
+  <si>
+    <t>Ordeñar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos a ordeñar la vaca. </t>
+  </si>
+  <si>
+    <t>kugwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quemar, asar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ase bastante la  carnes </t>
+  </si>
+  <si>
+    <t>Kugwä</t>
+  </si>
+  <si>
+    <t>Zorrillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El zorrillo huele muy  mal  </t>
+  </si>
+  <si>
+    <t>Kugwäre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacia usted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos solo hacia el rio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwä </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siembre la semilla de pejibaye.  </t>
+  </si>
+  <si>
+    <t>Kure</t>
+  </si>
+  <si>
+    <t>Banano maduro</t>
+  </si>
+  <si>
+    <t>Kwän</t>
+  </si>
+  <si>
+    <t>Planta de zorrillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpien  la plata de zorrillo. </t>
+  </si>
+  <si>
+    <t>Kugwän</t>
+  </si>
+  <si>
+    <t>Kugwäne</t>
+  </si>
+  <si>
+    <t>Pedazo (de telas objetos)</t>
+  </si>
+  <si>
+    <t>Kürü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compró </t>
+  </si>
+  <si>
+    <t>Kwe mren kürü ya?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El compro la sal?. </t>
+  </si>
+  <si>
+    <t>Kuben</t>
+  </si>
+  <si>
+    <t>Frente</t>
+  </si>
+  <si>
+    <t>Kubu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos (objetos redondos) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosecha dos naranja. </t>
+  </si>
+  <si>
+    <t>Kusogwä</t>
+  </si>
+  <si>
+    <t>Pesuña(de un animal)</t>
+  </si>
+  <si>
+    <t>Hediondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya hule hediondo la carne. </t>
+  </si>
+  <si>
+    <t>Küre</t>
+  </si>
+  <si>
+    <t>Fallecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri ye kä sübrüre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kä nete ti rebai ben. </t>
+  </si>
+  <si>
+    <t>kä ye bien tie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti kä Chema. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kä ne tigwe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matare kä bini tibo. </t>
+  </si>
+  <si>
+    <t>Ni ye käbäre krubäte .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngäbe nü kabre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somnbrero ne kabre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käbure ye uguegrö. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti kada nibi bren. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe kadagwata kri. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni ye kädegue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani kugwe kädriere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwi se kain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krimna  ye käingä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mä näin kaibe. </t>
+  </si>
+  <si>
+    <t>Nugrä tä kwi kaindare.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngwian ye kaingäbiti. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käjugue dite. </t>
+  </si>
+  <si>
+    <t>Kwe käli kiti tuara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San ye käme. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwi ye kämigai nigwe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kändän rubun krubäte.  </t>
+  </si>
+  <si>
+    <t>känäira kiala tuaba tigwe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nugrä ye juen käne. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mütü ye kaindari. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kagoto ye ti roaigwe. </t>
+  </si>
+  <si>
+    <t>Ngin ye känene.</t>
+  </si>
+  <si>
+    <t>Meigo nigui ti känengri.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ju tigwe känime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti run nigui käsenda. </t>
+  </si>
+  <si>
+    <t>Ni se tä kä kugwe.</t>
+  </si>
+  <si>
+    <t>Käsren ye mogre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kä nugwi  dera. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jetebe nigwe kare. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dän tigwe ye kare. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käre ti kugwe noen. </t>
+  </si>
+  <si>
+    <t>Kwe blite kärera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni ye kärere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwra tä kätogwäte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngita ye käte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jue ye tä kä te. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiga ye tiguegä kämä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sombrero ye käinte. </t>
+  </si>
+  <si>
+    <t>Ugwen kärie ye känene.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käburie  kitegä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngwana ki kadri. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ñö ye kegue siäte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kebe ye bä tain. </t>
+  </si>
+  <si>
+    <t>mägwe kebe kugwa dere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti trö  kegue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mä nibi keguete. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua migue blite kena. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keguema ne  kögö. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nara kwa ye kete. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi ne kedete. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngi ye kete kabre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilon ye kedebiti. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jagwe ti ken. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jä uguegro kediti. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dö ye kega siäte.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mungwe ja keta ketebu. </t>
+  </si>
+  <si>
+    <t>Ni Ketabe tuani.</t>
+  </si>
+  <si>
+    <t>Kwi ye ketegä jubäre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ki sribere mütü krägue. </t>
+  </si>
+  <si>
+    <t>Kira agwane mölö tuani.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti meye kira. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiängätä ye käme. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri ye tregue kia kia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti kide ye kri. </t>
+  </si>
+  <si>
+    <t>Meri kwe kiben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimu ye bäsegä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kidri ye käme. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muma ye kitete. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ü ye krä kirire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiadre ye kärere nete. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mäda tigwe köte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani kobaire jabe.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matare nigwe köböi migai. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köbö tigwe käme. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Köbö bäbe ngäbe rugai. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani köbö kite sribira. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni ye köböre käre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ködä ye bä drüne. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani dängutu kögö. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brän sribere kore. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kodo ye kite ja bätä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nibi ye ngatani kö te. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni ye Köto krubäte.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kögrä ye krägägwe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mägwe kögrä ye biti blita. </t>
+  </si>
+  <si>
+    <t>Kra ye kö migue chi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kötä me migue kri ken. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe tä mä kötaire käre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti krä nibi bren tie.    </t>
+  </si>
+  <si>
+    <t>Kra ye bien tie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meri se krä chi krubäte. </t>
+  </si>
+  <si>
+    <t>Mütü kräbe rurubäinda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe tä kwi kraire. </t>
+  </si>
+  <si>
+    <t>Krägä ye rienda degä.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilon  i krägue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nibi ye kögö krati. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mädä tä kräti migate.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matare kren nibi tie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni ye krene krubäte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri ye kä moräin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti ngobo ye kri krubäte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri blü ye bä tain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri ye krien kämugwäte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kriä ye dengä jugabäre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuitre ye krigri krubäte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri kise ye tiguegä. </t>
+  </si>
+  <si>
+    <t>Krigwata ye krägäre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe jatani bute krö. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deme ese lugar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi nombre es Chema. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este es mi tierra. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él es demasiado mezquino. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llegaron bastante  persona. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sombrero es caro. </t>
+  </si>
+  <si>
+    <t>Recoja esa basura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mi boca está enfermo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él tiene los labios grande. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre esa persona. </t>
+  </si>
+  <si>
+    <t>Vamos a conversar el tema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agarre ese gallina. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alce ese varilla.  </t>
+  </si>
+  <si>
+    <t>Siempre escuche mis palabras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este chile es picante. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bote la basura. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El camarón es de color rojo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rásqueme la espalda. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usted lo está cosquillando. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compre esta  papaya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostenga a este bebe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagan dos grupos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay tres grupos de piedras. </t>
+  </si>
+  <si>
+    <t>Encierre a fuera a los pollos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi mamá ya vino. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi mano es grande. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mujer vino con él. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El cabo de hacha está torcido. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llamen aquí a esos niños. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El tucán tiene varios colores. </t>
+  </si>
+  <si>
+    <t>Deje la leche al perro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El rajo la hoja de pita. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él tiene la mejilla larga. </t>
+  </si>
+  <si>
+    <t>El señor tiene la barba blanca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos a ser compadres. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi sueño es feo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagamos hoy día. </t>
+  </si>
+  <si>
+    <t>Por aquí hay muchos tábano.</t>
+  </si>
+  <si>
+    <t>Hagamos así .</t>
+  </si>
+  <si>
+    <t>Vístase con el taparrabo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haga un poco, la confección de la chácara. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él siempre está riéndose de usted. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Póngales la lombriz al anzuelo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me duele los huesos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mede esa chácara. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque será que  estas flaco. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compren una vaca. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay seis caballos en finca. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy tengo pereza. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ese árbol se llama amarillon. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi hijo es muy grande. </t>
+  </si>
+  <si>
+    <t>Las personas no indigenas son muy grandes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierva el agua hasta estar  tibio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esa ropa tiene mi sudor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayer se acabó la comida. </t>
+  </si>
+  <si>
+    <t>El perico ligero es de color gris .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El limón es acido. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos a dormir conmigo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eche a fuera al gato. </t>
+  </si>
+  <si>
+    <t>Mi hija tiene piojos en la cabeza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El más puños que yo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El plátano ya está  maduro. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recoja los pesados de vidrio. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mujer tiene dolor de cabeza. </t>
+  </si>
+  <si>
+    <t>Amarre la pesuña del cerdo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El falleció hoy en la mañana. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni ye küre degä matare. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngiri ye nibira kure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mütü kusogwä mäguete.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naran ye oto kubu tie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meri ye kuben dogwä tare.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidrio ye kugwän uguegrö. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwän ye bäsegä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bla ye nibira kure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deba ye kwä nögö.  </t>
+  </si>
+  <si>
+    <t>Brän ñö kugwäre kaibe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kugwä ye rä krubäte. </t>
+  </si>
+  <si>
+    <t>Ngiri ye kugwe ere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani nibi ye kian kuiate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kri ye tregue kunti ngire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni ye kwen gwi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deba tä mobe kuin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe gwa kuin kite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brän kutuä sribere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuta ye bä ngwen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe kuso krigri ti bätä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti ngängä dogwä kün tärä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minchi ye juendari küguen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ño bätä mä küdrere un bätä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ma küde ye otore.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ani kubien tibe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michi kübara ye nibi bren. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limón ye bänä kwaga. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ku ye bä ngübrüne. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrö ye krütani jädrin.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roa ye krütani meguera. </t>
+  </si>
+  <si>
+    <t>Krün kwata ye sribeta köre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bura ye kämigani krü biti. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dängutu ne tigwe  kruborie. </t>
+  </si>
+  <si>
+    <t>Ñö ye migue krübe jerekä.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwe ti tare krübäte.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nibi krotu chi.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti meyegwe blitani  krörö. </t>
   </si>
 </sst>
 </file>
@@ -4366,13 +7195,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14790,7 +17620,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15022,19 +17852,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -15046,7 +17876,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -15087,7 +17917,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>290</v>
       </c>
       <c r="B2" t="s">
@@ -15123,7 +17953,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>291</v>
       </c>
       <c r="B3" t="s">
@@ -15141,7 +17971,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>292</v>
       </c>
       <c r="B4" t="s">
@@ -15159,7 +17989,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>293</v>
       </c>
       <c r="B5" t="s">
@@ -15177,7 +18007,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>294</v>
       </c>
       <c r="B6" t="s">
@@ -15195,7 +18025,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>295</v>
       </c>
       <c r="B7" t="s">
@@ -15213,7 +18043,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>296</v>
       </c>
       <c r="B8" t="s">
@@ -15231,7 +18061,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>297</v>
       </c>
       <c r="B9" t="s">
@@ -15249,7 +18079,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>298</v>
       </c>
       <c r="B10" t="s">
@@ -15267,7 +18097,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>299</v>
       </c>
       <c r="B11" t="s">
@@ -15285,7 +18115,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>300</v>
       </c>
       <c r="B12" t="s">
@@ -15303,7 +18133,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>301</v>
       </c>
       <c r="B13" t="s">
@@ -15321,7 +18151,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>302</v>
       </c>
       <c r="B14" t="s">
@@ -15339,7 +18169,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>303</v>
       </c>
       <c r="B15" t="s">
@@ -15357,7 +18187,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>304</v>
       </c>
       <c r="B16" t="s">
@@ -15375,7 +18205,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>305</v>
       </c>
       <c r="B17" t="s">
@@ -15390,11 +18220,4193 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>306</v>
       </c>
       <c r="B18" t="s">
         <v>1201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>307</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>308</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>309</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>310</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>311</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>312</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>313</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>314</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>315</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>316</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>317</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>318</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>319</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>320</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>321</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>322</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>323</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>324</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>325</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>326</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>327</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>328</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>329</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>330</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C42" t="s">
+        <v>406</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>331</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>332</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>333</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>334</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>335</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>336</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>337</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>338</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>339</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>340</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>341</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>342</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>343</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>344</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>345</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>346</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>347</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>348</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>349</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>350</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>351</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>352</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>353</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>354</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>355</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>356</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>357</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>358</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>359</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>360</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>361</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>362</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>363</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>364</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>365</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M185"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>366</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G2" t="s">
+        <v>735</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>43867.470242997682</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>367</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>368</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>370</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>371</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>372</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>373</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>374</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>375</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>376</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>377</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>378</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>379</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>380</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>381</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>382</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>383</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>384</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>385</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>386</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>387</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>388</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>389</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>390</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>391</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>392</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>393</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>394</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>395</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>396</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>397</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>398</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>399</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>400</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>401</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>402</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>403</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>404</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>405</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>406</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>407</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>408</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>409</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>410</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>411</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>412</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>413</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>414</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>415</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>416</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>417</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>418</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>419</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>420</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>421</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>422</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>423</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>424</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>425</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>426</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>427</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>428</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>429</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>430</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>431</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>432</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>433</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>434</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>435</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>436</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>437</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>438</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>439</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>440</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>441</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>442</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>443</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>444</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>445</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>446</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>447</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>448</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>449</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>450</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>451</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>452</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>453</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>454</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>455</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>456</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>457</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>458</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>459</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>460</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>461</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>462</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>463</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>464</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>465</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>466</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>467</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2047</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>468</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>469</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>470</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>471</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>472</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>473</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>474</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>475</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>476</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>477</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>478</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>479</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>480</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>481</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>482</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>483</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>484</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E120" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>485</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>486</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>487</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E123" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>488</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E124" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>489</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E125" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>490</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>491</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>492</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>493</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>494</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>495</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>496</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>497</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>498</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>499</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>500</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>501</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>502</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>503</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>504</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>505</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>506</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>507</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>508</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>509</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>510</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>511</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>512</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>513</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>514</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>515</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>516</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>517</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>518</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>519</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E155" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>520</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E156" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>521</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E157" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>522</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>523</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E159" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>524</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>525</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>526</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E162" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>527</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E163" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>528</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E164" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>529</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>530</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>531</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>532</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>533</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>534</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>535</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2160</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>536</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>537</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>538</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>539</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>540</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E176" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>541</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>542</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E178" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>543</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>544</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>545</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E181" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>546</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>547</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E183" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>548</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>549</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E185" t="s">
+        <v>2147</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/plantillaTerminos.xlsx
+++ b/src/data/plantillaTerminos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\traducto-ngabere\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prueba\www\traducto-ngabere\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7935" windowHeight="4575" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7935" windowHeight="4575" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="letraA" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1763">
   <si>
     <t>id</t>
   </si>
@@ -12737,7 +12737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -13145,8 +13145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView topLeftCell="E57" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13217,15 +13217,12 @@
       <c r="C2" t="s">
         <v>780</v>
       </c>
-      <c r="E2" t="s">
-        <v>824</v>
-      </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G33" si="0">CONCATENATE("subidos/imagenes/",A2,"_letra_gw.png")</f>
-        <v>subidos/imagenes/290_letra_gw.png</v>
+        <f>CONCATENATE("subidos/imagenes/",A2,"_letra_j.png")</f>
+        <v>subidos/imagenes/290_letra_j.png</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -13260,14 +13257,14 @@
         <v>810</v>
       </c>
       <c r="E3" t="s">
-        <v>797</v>
+        <v>824</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v>subidos/imagenes/291_letra_gw.png</v>
+        <f t="shared" ref="G3:G66" si="0">CONCATENATE("subidos/imagenes/",A3,"_letra_j.png")</f>
+        <v>subidos/imagenes/291_letra_j.png</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -13302,14 +13299,14 @@
         <v>811</v>
       </c>
       <c r="E4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/292_letra_gw.png</v>
+        <v>subidos/imagenes/292_letra_j.png</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -13344,14 +13341,14 @@
         <v>812</v>
       </c>
       <c r="E5" t="s">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/293_letra_gw.png</v>
+        <v>subidos/imagenes/293_letra_j.png</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -13386,14 +13383,14 @@
         <v>813</v>
       </c>
       <c r="E6" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/294_letra_gw.png</v>
+        <v>subidos/imagenes/294_letra_j.png</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -13428,14 +13425,14 @@
         <v>814</v>
       </c>
       <c r="E7" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/295_letra_gw.png</v>
+        <v>subidos/imagenes/295_letra_j.png</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -13470,14 +13467,14 @@
         <v>815</v>
       </c>
       <c r="E8" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/296_letra_gw.png</v>
+        <v>subidos/imagenes/296_letra_j.png</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -13512,14 +13509,14 @@
         <v>816</v>
       </c>
       <c r="E9" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/297_letra_gw.png</v>
+        <v>subidos/imagenes/297_letra_j.png</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -13554,14 +13551,14 @@
         <v>817</v>
       </c>
       <c r="E10" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/298_letra_gw.png</v>
+        <v>subidos/imagenes/298_letra_j.png</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -13596,14 +13593,14 @@
         <v>818</v>
       </c>
       <c r="E11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/299_letra_gw.png</v>
+        <v>subidos/imagenes/299_letra_j.png</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -13638,14 +13635,14 @@
         <v>796</v>
       </c>
       <c r="E12" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/300_letra_gw.png</v>
+        <v>subidos/imagenes/300_letra_j.png</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -13680,14 +13677,14 @@
         <v>819</v>
       </c>
       <c r="E13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/301_letra_gw.png</v>
+        <v>subidos/imagenes/301_letra_j.png</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -13722,14 +13719,14 @@
         <v>820</v>
       </c>
       <c r="E14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/302_letra_gw.png</v>
+        <v>subidos/imagenes/302_letra_j.png</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -13764,14 +13761,14 @@
         <v>821</v>
       </c>
       <c r="E15" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/303_letra_gw.png</v>
+        <v>subidos/imagenes/303_letra_j.png</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -13806,14 +13803,14 @@
         <v>822</v>
       </c>
       <c r="E16" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/304_letra_gw.png</v>
+        <v>subidos/imagenes/304_letra_j.png</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -13847,12 +13844,15 @@
       <c r="D17" t="s">
         <v>823</v>
       </c>
+      <c r="E17" t="s">
+        <v>809</v>
+      </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/305_letra_gw.png</v>
+        <v>subidos/imagenes/305_letra_j.png</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -13880,12 +13880,21 @@
       <c r="B18" t="s">
         <v>779</v>
       </c>
+      <c r="C18" t="s">
+        <v>795</v>
+      </c>
+      <c r="D18" t="s">
+        <v>823</v>
+      </c>
+      <c r="E18" t="s">
+        <v>809</v>
+      </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/306_letra_gw.png</v>
+        <v>subidos/imagenes/306_letra_j.png</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -13927,7 +13936,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/307_letra_gw.png</v>
+        <v>subidos/imagenes/307_letra_j.png</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -13969,7 +13978,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/308_letra_gw.png</v>
+        <v>subidos/imagenes/308_letra_j.png</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -14011,7 +14020,7 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/309_letra_gw.png</v>
+        <v>subidos/imagenes/309_letra_j.png</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -14053,7 +14062,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/310_letra_gw.png</v>
+        <v>subidos/imagenes/310_letra_j.png</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -14095,7 +14104,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/311_letra_gw.png</v>
+        <v>subidos/imagenes/311_letra_j.png</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -14137,7 +14146,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/312_letra_gw.png</v>
+        <v>subidos/imagenes/312_letra_j.png</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -14179,7 +14188,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/313_letra_gw.png</v>
+        <v>subidos/imagenes/313_letra_j.png</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -14221,7 +14230,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/314_letra_gw.png</v>
+        <v>subidos/imagenes/314_letra_j.png</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -14263,7 +14272,7 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/315_letra_gw.png</v>
+        <v>subidos/imagenes/315_letra_j.png</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -14305,7 +14314,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/316_letra_gw.png</v>
+        <v>subidos/imagenes/316_letra_j.png</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -14347,7 +14356,7 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/317_letra_gw.png</v>
+        <v>subidos/imagenes/317_letra_j.png</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -14389,7 +14398,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/318_letra_gw.png</v>
+        <v>subidos/imagenes/318_letra_j.png</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -14431,7 +14440,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/319_letra_gw.png</v>
+        <v>subidos/imagenes/319_letra_j.png</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -14473,7 +14482,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/320_letra_gw.png</v>
+        <v>subidos/imagenes/320_letra_j.png</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -14515,7 +14524,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>subidos/imagenes/321_letra_gw.png</v>
+        <v>subidos/imagenes/321_letra_j.png</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -14556,8 +14565,8 @@
         <v>17</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ref="G34:G65" si="1">CONCATENATE("subidos/imagenes/",A34,"_letra_gw.png")</f>
-        <v>subidos/imagenes/322_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/322_letra_j.png</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -14598,8 +14607,8 @@
         <v>17</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/323_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/323_letra_j.png</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -14640,8 +14649,8 @@
         <v>17</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/324_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/324_letra_j.png</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -14682,8 +14691,8 @@
         <v>17</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/325_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/325_letra_j.png</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -14724,8 +14733,8 @@
         <v>17</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/326_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/326_letra_j.png</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -14766,8 +14775,8 @@
         <v>17</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/327_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/327_letra_j.png</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -14808,8 +14817,8 @@
         <v>17</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/328_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/328_letra_j.png</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -14850,8 +14859,8 @@
         <v>17</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/329_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/329_letra_j.png</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -14892,8 +14901,8 @@
         <v>17</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/330_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/330_letra_j.png</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -14934,8 +14943,8 @@
         <v>17</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/331_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/331_letra_j.png</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -14976,8 +14985,8 @@
         <v>17</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/332_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/332_letra_j.png</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -15018,8 +15027,8 @@
         <v>17</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/333_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/333_letra_j.png</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -15060,8 +15069,8 @@
         <v>17</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/334_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/334_letra_j.png</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -15102,8 +15111,8 @@
         <v>17</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/335_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/335_letra_j.png</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -15144,8 +15153,8 @@
         <v>17</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/336_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/336_letra_j.png</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -15186,8 +15195,8 @@
         <v>17</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/337_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/337_letra_j.png</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -15228,8 +15237,8 @@
         <v>17</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/338_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/338_letra_j.png</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -15270,8 +15279,8 @@
         <v>17</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/339_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/339_letra_j.png</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -15312,8 +15321,8 @@
         <v>17</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/340_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/340_letra_j.png</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -15354,8 +15363,8 @@
         <v>17</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/341_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/341_letra_j.png</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -15396,8 +15405,8 @@
         <v>17</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/342_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/342_letra_j.png</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -15438,8 +15447,8 @@
         <v>17</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/343_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/343_letra_j.png</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -15480,8 +15489,8 @@
         <v>17</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/344_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/344_letra_j.png</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -15522,8 +15531,8 @@
         <v>17</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/345_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/345_letra_j.png</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -15564,8 +15573,8 @@
         <v>17</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/346_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/346_letra_j.png</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -15606,8 +15615,8 @@
         <v>17</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/347_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/347_letra_j.png</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -15648,8 +15657,8 @@
         <v>17</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/348_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/348_letra_j.png</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -15690,8 +15699,8 @@
         <v>17</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/349_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/349_letra_j.png</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -15732,8 +15741,8 @@
         <v>17</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/350_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/350_letra_j.png</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -15774,8 +15783,8 @@
         <v>17</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/351_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/351_letra_j.png</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -15816,8 +15825,8 @@
         <v>17</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/352_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/352_letra_j.png</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -15858,8 +15867,8 @@
         <v>17</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="1"/>
-        <v>subidos/imagenes/353_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/353_letra_j.png</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -15900,8 +15909,8 @@
         <v>17</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G77" si="2">CONCATENATE("subidos/imagenes/",A66,"_letra_gw.png")</f>
-        <v>subidos/imagenes/354_letra_gw.png</v>
+        <f t="shared" si="0"/>
+        <v>subidos/imagenes/354_letra_j.png</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -15942,8 +15951,8 @@
         <v>17</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="2"/>
-        <v>subidos/imagenes/355_letra_gw.png</v>
+        <f t="shared" ref="G67:G77" si="1">CONCATENATE("subidos/imagenes/",A67,"_letra_j.png")</f>
+        <v>subidos/imagenes/355_letra_j.png</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -15984,8 +15993,8 @@
         <v>17</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="2"/>
-        <v>subidos/imagenes/356_letra_gw.png</v>
+        <f t="shared" si="1"/>
+        <v>subidos/imagenes/356_letra_j.png</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -16026,8 +16035,8 @@
         <v>17</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="2"/>
-        <v>subidos/imagenes/357_letra_gw.png</v>
+        <f t="shared" si="1"/>
+        <v>subidos/imagenes/357_letra_j.png</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -16068,8 +16077,8 @@
         <v>17</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="2"/>
-        <v>subidos/imagenes/358_letra_gw.png</v>
+        <f t="shared" si="1"/>
+        <v>subidos/imagenes/358_letra_j.png</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -16110,8 +16119,8 @@
         <v>17</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="2"/>
-        <v>subidos/imagenes/359_letra_gw.png</v>
+        <f t="shared" si="1"/>
+        <v>subidos/imagenes/359_letra_j.png</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -16152,8 +16161,8 @@
         <v>17</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="2"/>
-        <v>subidos/imagenes/360_letra_gw.png</v>
+        <f t="shared" si="1"/>
+        <v>subidos/imagenes/360_letra_j.png</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -16194,8 +16203,8 @@
         <v>17</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="2"/>
-        <v>subidos/imagenes/361_letra_gw.png</v>
+        <f t="shared" si="1"/>
+        <v>subidos/imagenes/361_letra_j.png</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -16236,8 +16245,8 @@
         <v>17</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="2"/>
-        <v>subidos/imagenes/362_letra_gw.png</v>
+        <f t="shared" si="1"/>
+        <v>subidos/imagenes/362_letra_j.png</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -16278,8 +16287,8 @@
         <v>17</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="2"/>
-        <v>subidos/imagenes/363_letra_gw.png</v>
+        <f t="shared" si="1"/>
+        <v>subidos/imagenes/363_letra_j.png</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -16320,8 +16329,8 @@
         <v>17</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="2"/>
-        <v>subidos/imagenes/364_letra_gw.png</v>
+        <f t="shared" si="1"/>
+        <v>subidos/imagenes/364_letra_j.png</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -16362,8 +16371,8 @@
         <v>17</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="2"/>
-        <v>subidos/imagenes/365_letra_gw.png</v>
+        <f t="shared" si="1"/>
+        <v>subidos/imagenes/365_letra_j.png</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -16394,7 +16403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M185"/>
   <sheetViews>
-    <sheetView topLeftCell="E178" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E178" workbookViewId="0">
       <selection activeCell="J191" sqref="J191"/>
     </sheetView>
   </sheetViews>
